--- a/Controle de Ponto.xlsx
+++ b/Controle de Ponto.xlsx
@@ -1,33 +1,243 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cecato\Desktop\Projetos\Proj_CTL_Ponto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+  <si>
+    <t>Dia Entrada</t>
+  </si>
+  <si>
+    <t>Hora entrada</t>
+  </si>
+  <si>
+    <t>Dia saíada</t>
+  </si>
+  <si>
+    <t>Hora Saída</t>
+  </si>
+  <si>
+    <t>05 /05/ 2023</t>
+  </si>
+  <si>
+    <t>13:03:05</t>
+  </si>
+  <si>
+    <t>13:03:06</t>
+  </si>
+  <si>
+    <t>13:03:08</t>
+  </si>
+  <si>
+    <t>13:03:09</t>
+  </si>
+  <si>
+    <t>13:03:56</t>
+  </si>
+  <si>
+    <t>13:03:59</t>
+  </si>
+  <si>
+    <t>13:04:03</t>
+  </si>
+  <si>
+    <t>13:04:06</t>
+  </si>
+  <si>
+    <t>13:04:09</t>
+  </si>
+  <si>
+    <t>13:04:13</t>
+  </si>
+  <si>
+    <t>13:04:16</t>
+  </si>
+  <si>
+    <t>13:04:19</t>
+  </si>
+  <si>
+    <t>13:04:23</t>
+  </si>
+  <si>
+    <t>13:04:30</t>
+  </si>
+  <si>
+    <t>13:12:48</t>
+  </si>
+  <si>
+    <t>13:12:49</t>
+  </si>
+  <si>
+    <t>13:12:50</t>
+  </si>
+  <si>
+    <t>13:12:51</t>
+  </si>
+  <si>
+    <t>16:48:52</t>
+  </si>
+  <si>
+    <t>16:48:53</t>
+  </si>
+  <si>
+    <t>16:48:55</t>
+  </si>
+  <si>
+    <t>16:48:57</t>
+  </si>
+  <si>
+    <t>16:51:03</t>
+  </si>
+  <si>
+    <t>16:51:04</t>
+  </si>
+  <si>
+    <t>16:53:53</t>
+  </si>
+  <si>
+    <t>16:53:54</t>
+  </si>
+  <si>
+    <t>16:53:55</t>
+  </si>
+  <si>
+    <t>17:03:39</t>
+  </si>
+  <si>
+    <t>17:03:40</t>
+  </si>
+  <si>
+    <t>17:03:41</t>
+  </si>
+  <si>
+    <t>17:03:42</t>
+  </si>
+  <si>
+    <t>17:09:17</t>
+  </si>
+  <si>
+    <t>17:16:00</t>
+  </si>
+  <si>
+    <t>17:16:01</t>
+  </si>
+  <si>
+    <t>17:16:03</t>
+  </si>
+  <si>
+    <t>17:16:04</t>
+  </si>
+  <si>
+    <t>17:27:34</t>
+  </si>
+  <si>
+    <t>17:27:35</t>
+  </si>
+  <si>
+    <t>17:35:34</t>
+  </si>
+  <si>
+    <t>17:35:36</t>
+  </si>
+  <si>
+    <t>17:37:06</t>
+  </si>
+  <si>
+    <t>17:37:09</t>
+  </si>
+  <si>
+    <t>17:37:48</t>
+  </si>
+  <si>
+    <t>17:37:49</t>
+  </si>
+  <si>
+    <t>07 /05/ 2023</t>
+  </si>
+  <si>
+    <t>08:31:01</t>
+  </si>
+  <si>
+    <t>08:31:04</t>
+  </si>
+  <si>
+    <t>08:36:58</t>
+  </si>
+  <si>
+    <t>08:37:02</t>
+  </si>
+  <si>
+    <t>08:54:07</t>
+  </si>
+  <si>
+    <t>08:54:11</t>
+  </si>
+  <si>
+    <t>08:56:34</t>
+  </si>
+  <si>
+    <t>08:56:45</t>
+  </si>
+  <si>
+    <t>09:30:11</t>
+  </si>
+  <si>
+    <t>09:30:13</t>
+  </si>
+  <si>
+    <t>09:40:37</t>
+  </si>
+  <si>
+    <t>09:40:38</t>
+  </si>
+  <si>
+    <t>10:24:36</t>
+  </si>
+  <si>
+    <t>10:24:37</t>
+  </si>
+  <si>
+    <t>10:33:44</t>
+  </si>
+  <si>
+    <t>10:33:45</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,81 +255,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,129 +559,528 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="34.28515625" customWidth="1" min="1" max="1"/>
-    <col width="31.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 15:59:18 </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 15:59:19 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 15:59:21 </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 15:59:22 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 15:59:24 </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 15:59:25 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 15:59:28 </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 15:59:29 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 15:59:31 </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 15:59:32 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 16:03:46 </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 16:03:48 </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 16:03:52 </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 16:03:51 </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 16:03:54 </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 /04/ 2023 16:03:56 </t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Controle de Ponto.xlsx
+++ b/Controle de Ponto.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -415,10 +415,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1238,6 +1238,336 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>09:12:31</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>09:12:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>14:05:04</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14:05:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>14:05:13</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14:05:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>14:05:04</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14:05:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>14:05:13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14:05:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>14:05:04</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14:05:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>14:05:13</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14:05:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>14:06:02</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14:06:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>14:06:06</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14:06:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>14:06:47</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14:06:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>14:06:51</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14:06:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>14:09:08</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14:09:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>14:09:15</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14:09:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>14:11:56</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14:11:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>14:12:01</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14:12:06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Controle de Ponto.xlsx
+++ b/Controle de Ponto.xlsx
@@ -15,8 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="[hh]:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -47,9 +49,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
@@ -452,6 +456,11 @@
           <t>Hora Saída</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Horas Trabalhadas</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1566,6 +1575,644 @@
         <is>
           <t>14:12:06</t>
         </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>14:36:07</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14:36:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>14:36:11</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14:36:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>1.615625</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>1.615648148148148</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>1.615682870370371</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>1.615706018518519</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>1.617638888888889</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>1.617650462962963</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>1.617673611111111</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>1.617685185185185</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>1.6315625</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>1.631574074074074</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>1.632719907407407</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>1.632731481481482</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>1.63275462962963</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45059</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>1.632766203703704</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>15:13:09</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>15:13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>15:39:01</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>15:39:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>15:39:05</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>15:39:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>16:00:38</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>16:00:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>16:11:27</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>16:11:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>16:11:33</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>16:11:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>16:22:05</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>16:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>16:22:08</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>16:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>16:33:19</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>16:33:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>16:33:25</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>16:33:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>16:34:23</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>16:34:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>16:34:32</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>16:34:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>16:35:46</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>16:35:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>16:35:55</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>16:36:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>16:43:59</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>16:44:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>16:44:03</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>16:44:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>16:49:50</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>16:49:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>16:49:56</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>16:50:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>16:54:47</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>16:54:49</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>16:54:52</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>16:54:57</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>16:54:47</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>16:54:49</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>16:54:52</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>16:54:57</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Controle de Ponto.xlsx
+++ b/Controle de Ponto.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
@@ -2215,6 +2215,1481 @@
         <v>5.787037037037037e-05</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>18:08:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>18:08:02</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>18:08:05</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>18:08:07</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>18:25:12</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>18:25:14</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>18:25:15</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>18:25:19</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>4.629629629629629e-05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>18:25:55</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>18:25:59</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>4.629629629629629e-05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>18:26:01</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>18:26:06</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>18:32:03</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>18:32:05</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>18:32:07</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>18:32:14</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>8.101851851851852e-05</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>18:32:16</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>18:32:28</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>0.0001388888888888889</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>18:40:53</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>18:40:55</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>18:40:56</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>13 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>18:40:57</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>1.157407407407407e-05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>09:46:31</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>09:46:33</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>09:46:35</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>09:46:38</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>3.472222222222222e-05</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>09:47:21</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>09:47:23</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>09:47:25</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>09:47:27</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>09:48:11</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>09:48:13</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>09:48:14</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>09:48:15</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>1.157407407407407e-05</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>09:50:14</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>09:50:16</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>09:50:18</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>09:50:24</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>6.944444444444444e-05</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>09:53:47</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>09:53:48</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>1.157407407407407e-05</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>09:53:51</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>09:54:03</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>0.0001388888888888889</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>10:05:54</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>10:05:56</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>10:05:57</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>10:06:03</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>6.944444444444444e-05</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>10:08:14</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>10:08:17</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>3.472222222222222e-05</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>10:08:19</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>10:08:25</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>6.944444444444444e-05</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>10:10:41</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>10:10:45</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="n">
+        <v>4.629629629629629e-05</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>10:10:47</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>10:10:51</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>4.629629629629629e-05</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>10:12:19</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>10:12:21</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>10:12:23</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>10:12:25</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>10:13:05</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>10:13:06</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="n">
+        <v>1.157407407407407e-05</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>10:13:08</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>10:13:10</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>10:16:48</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>10:16:51</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>3.472222222222222e-05</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>10:16:53</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>10:16:56</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="n">
+        <v>3.472222222222222e-05</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>10:17:20</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>10:18:14</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="n">
+        <v>0.000625</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>10:18:16</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>10:20:36</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="n">
+        <v>0.00162037037037037</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>10:21:41</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>10:21:44</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="n">
+        <v>3.472222222222222e-05</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>10:21:46</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>10:21:48</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>10:22:29</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>10:22:31</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>10:22:31</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>10:22:33</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>10:23:11</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>10:23:13</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>10:23:14</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>10:23:16</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>10:34:28</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>10:34:30</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>10:34:33</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>10:34:36</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>3.472222222222222e-05</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>10:34:39</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>10:34:41</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>10:40:21</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>10:40:25</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="n">
+        <v>4.629629629629629e-05</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>10:40:27</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>10:40:29</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>10:42:54</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>10:42:58</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>4.629629629629629e-05</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>10:43:00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>10:43:05</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>10:45:32</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>10:45:37</t>
+        </is>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>10:45:42</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>10:45:49</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>8.101851851851852e-05</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>10:48:06</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>10:48:08</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>10:48:09</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>10:48:11</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>10:48:12</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>10:48:14</t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>10:49:51</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>10:49:55</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="n">
+        <v>4.629629629629629e-05</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>10:49:56</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>10:50:00</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="n">
+        <v>4.629629629629629e-05</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>10:50:23</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>10:50:24</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="n">
+        <v>1.157407407407407e-05</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>10:51:12</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>10:51:13</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="n">
+        <v>1.157407407407407e-05</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>10:51:38</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>10:51:48</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>10:51:49</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>10:51:56</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="n">
+        <v>8.101851851851852e-05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Controle de Ponto.xlsx
+++ b/Controle de Ponto.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
@@ -3690,6 +3690,506 @@
         <v>8.101851851851852e-05</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>10:57:18</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>10:57:20</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>10:57:23</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>10:57:26</t>
+        </is>
+      </c>
+      <c r="E141" s="3" t="n">
+        <v>3.472222222222222e-05</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>11:01:10</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>11:01:13</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="n">
+        <v>3.472222222222222e-05</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>11:01:15</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>11:01:17</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>11:09:38</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>11:09:53</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="n">
+        <v>0.0001736111111111111</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>11:28:31</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>11:28:32</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>1.157407407407407e-05</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>11:28:34</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>11:28:45</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="n">
+        <v>0.0001273148148148148</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>11:28:59</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>11:29:04</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>11:29:08</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>11:29:13</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>11:30:06</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>11:30:13</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="n">
+        <v>8.101851851851852e-05</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>11:30:15</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>11:30:21</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="n">
+        <v>6.944444444444444e-05</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>11:31:40</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>11:31:45</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>11:31:48</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>11:31:56</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="n">
+        <v>9.259259259259259e-05</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>11:33:03</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>11:33:10</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="n">
+        <v>8.101851851851852e-05</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>11:33:11</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>11:33:18</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="n">
+        <v>8.101851851851852e-05</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>11:38:54</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>11:39:05</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="n">
+        <v>0.0001273148148148148</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>11:39:06</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>11:39:13</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="n">
+        <v>8.101851851851852e-05</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>11:39:14</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>11:39:37</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="n">
+        <v>0.0002662037037037037</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>11:47:46</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>11:47:48</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>11:47:49</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>11:47:53</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="n">
+        <v>4.629629629629629e-05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Controle de Ponto.xlsx
+++ b/Controle de Ponto.xlsx
@@ -419,13 +419,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="17.28515625" customWidth="1" min="1" max="1"/>
     <col width="22.7109375" customWidth="1" min="2" max="2"/>
@@ -4190,6 +4190,293 @@
         <v>4.629629629629629e-05</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15 /05/ 2023 17:02:55 </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15 /05/ 2023 17:02:54 </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>17:09:25</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>17:09:26</t>
+        </is>
+      </c>
+      <c r="E161" s="3" t="n">
+        <v>1.157407407407407e-05</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>17:09:27</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>17:09:27</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>17:09:29</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>17:09:29</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>17:09:31</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>17:09:29</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="n">
+        <v>-2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>17:09:32</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>17:09:30</t>
+        </is>
+      </c>
+      <c r="E165" s="3" t="n">
+        <v>-2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>17:09:25</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>17:09:26</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="n">
+        <v>1.157407407407407e-05</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>17:09:27</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>17:09:27</t>
+        </is>
+      </c>
+      <c r="E167" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>17:09:29</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>17:09:29</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>17:09:31</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>17:09:29</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="n">
+        <v>-2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>17:09:32</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>17:09:30</t>
+        </is>
+      </c>
+      <c r="E170" s="3" t="n">
+        <v>-2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>17:09:46</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>15 /05/ 2023</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>17:09:30</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="n">
+        <v>1.157407407407407e-05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Controle de Ponto.xlsx
+++ b/Controle de Ponto.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
@@ -4477,6 +4477,156 @@
         <v>1.157407407407407e-05</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>18:07:57</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>18:07:57</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>18:07:57</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>18:07:57</t>
+        </is>
+      </c>
+      <c r="E173" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>18:08:03</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>18:08:07</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>18:07:57</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>18:07:57</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>18:08:03</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>18:08:07</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>18:08:15</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>18:08:17</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="n">
+        <v>4.629629629629629e-05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Controle de Ponto.xlsx
+++ b/Controle de Ponto.xlsx
@@ -419,13 +419,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17.28515625" customWidth="1" min="1" max="1"/>
     <col width="22.7109375" customWidth="1" min="2" max="2"/>
@@ -4627,6 +4627,156 @@
         <v>4.629629629629629e-05</v>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>18:53:26</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>18:53:28</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>18:55:06</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>18:55:08</t>
+        </is>
+      </c>
+      <c r="E179" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>18:55:06</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>18:55:08</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>18:55:06</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>18:55:08</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>18:55:15</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>18:55:15</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>18:55:46</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>15/05/2023</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>18:55:48</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
